--- a/TestDataExcel/ZylerERPPurchase.xlsx
+++ b/TestDataExcel/ZylerERPPurchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zyler ERP Automation\ZylerERP\TestDataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0FA27-73B0-4077-AFE4-4F58A0DF43AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6819563-3343-4404-A118-237D064560B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="859" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="InboundTracking" sheetId="8" r:id="rId2"/>
     <sheet name="AccountPayable" sheetId="10" r:id="rId3"/>
     <sheet name="PurchaseOrder" sheetId="6" r:id="rId4"/>
-    <sheet name="Sourcing" sheetId="7" r:id="rId5"/>
-    <sheet name="Customer" sheetId="1" r:id="rId6"/>
+    <sheet name="RFQ" sheetId="14" r:id="rId5"/>
+    <sheet name="Sourcing" sheetId="7" r:id="rId6"/>
+    <sheet name="Customer" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Company</t>
   </si>
@@ -270,6 +271,15 @@
   </si>
   <si>
     <t>Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh Vendor	</t>
+  </si>
+  <si>
+    <t>JO42</t>
+  </si>
+  <si>
+    <t>JO52</t>
   </si>
 </sst>
 </file>
@@ -308,13 +318,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +613,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +837,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,10 +982,83 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBA921D-E84C-4084-94A2-A41433658CDB}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="19.109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AD2A8F-456B-4983-BD92-08299DCB0EA1}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1164,7 +1250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>

--- a/TestDataExcel/ZylerERPPurchase.xlsx
+++ b/TestDataExcel/ZylerERPPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zyler ERP Automation\ZylerERP\TestDataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6819563-3343-4404-A118-237D064560B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59419910-D6D7-49A4-A523-DBE0941AEFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="859" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="859" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisition" sheetId="13" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="AccountPayable" sheetId="10" r:id="rId3"/>
     <sheet name="PurchaseOrder" sheetId="6" r:id="rId4"/>
     <sheet name="RFQ" sheetId="14" r:id="rId5"/>
-    <sheet name="Sourcing" sheetId="7" r:id="rId6"/>
-    <sheet name="Customer" sheetId="1" r:id="rId7"/>
+    <sheet name="ReceivedQuotation" sheetId="15" r:id="rId6"/>
+    <sheet name="Sourcing" sheetId="7" r:id="rId7"/>
+    <sheet name="Customer" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>Company</t>
   </si>
@@ -280,6 +281,12 @@
   </si>
   <si>
     <t>JO52</t>
+  </si>
+  <si>
+    <t>JO72</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -837,7 +844,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBA921D-E84C-4084-94A2-A41433658CDB}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,6 +1062,159 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE50691-15F5-458E-8298-6F684CEB4448}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AD2A8F-456B-4983-BD92-08299DCB0EA1}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -1250,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>

--- a/TestDataExcel/ZylerERPPurchase.xlsx
+++ b/TestDataExcel/ZylerERPPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zyler ERP Automation\ZylerERP\TestDataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59419910-D6D7-49A4-A523-DBE0941AEFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6C741-5B17-420A-A90E-29E66D2500C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="859" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisition" sheetId="13" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
   <si>
     <t>Company</t>
   </si>
@@ -287,6 +287,21 @@
   </si>
   <si>
     <t>Customer</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Test Note 2</t>
+  </si>
+  <si>
+    <t>Test note 3</t>
+  </si>
+  <si>
+    <t>Test note 4</t>
+  </si>
+  <si>
+    <t>Test note 1</t>
   </si>
 </sst>
 </file>
@@ -721,10 +736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4565C8-4FB9-4825-B236-84FE5C554502}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +752,7 @@
     <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -763,7 +778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -789,12 +804,44 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>37</v>
       </c>
+      <c r="G3">
+        <v>1500</v>
+      </c>
       <c r="H3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -841,10 +888,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB7B9FE-A01D-40FA-8ADA-87C71A0457BD}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +899,7 @@
     <col min="1" max="9" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -877,8 +924,11 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -903,8 +953,11 @@
       <c r="H2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -929,8 +982,11 @@
       <c r="H3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -955,8 +1011,11 @@
       <c r="H4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -980,6 +1039,38 @@
       </c>
       <c r="H5">
         <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE50691-15F5-458E-8298-6F684CEB4448}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/TestDataExcel/ZylerERPPurchase.xlsx
+++ b/TestDataExcel/ZylerERPPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zyler ERP Automation\ZylerERP\TestDataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6C741-5B17-420A-A90E-29E66D2500C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53393613-208A-4347-8548-3C92C4D68ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="859" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisition" sheetId="13" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>Company</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Test note 1</t>
+  </si>
+  <si>
+    <t>Pack Size</t>
+  </si>
+  <si>
+    <t>Test Note 1</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4565C8-4FB9-4825-B236-84FE5C554502}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -851,15 +857,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67779C3-B888-40D6-9C7F-A21C9F5DEAC0}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -869,8 +878,14 @@
       <c r="C1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -879,6 +894,46 @@
       </c>
       <c r="C2" t="s">
         <v>64</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1500</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
